--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D87B17F-823F-42B0-BE35-943EA680E7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04397CE5-C135-4636-AAC0-0E3A874D8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Status</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Capital Call </t>
+  </si>
+  <si>
+    <t>Folio No*</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -443,7 +446,7 @@
     <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -465,8 +468,11 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -489,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -512,7 +518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -535,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -558,7 +564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04397CE5-C135-4636-AAC0-0E3A874D8DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3A5739-1CA8-4841-9C00-4CA2FD4F01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Status</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Verified</t>
   </si>
   <si>
-    <t>Agri Fund</t>
-  </si>
-  <si>
     <t>Capital Call 9</t>
   </si>
   <si>
@@ -40,18 +37,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Bansal family office</t>
-  </si>
-  <si>
-    <t>Metta investors</t>
-  </si>
-  <si>
-    <t>Waterfield Advisors</t>
-  </si>
-  <si>
-    <t>Delta Ventures</t>
-  </si>
-  <si>
     <t>Collected Amount *</t>
   </si>
   <si>
@@ -73,20 +58,34 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Sekhsaria family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital Call </t>
-  </si>
-  <si>
     <t>Folio No*</t>
+  </si>
+  <si>
+    <t>Investor 1</t>
+  </si>
+  <si>
+    <t>Investor 2</t>
+  </si>
+  <si>
+    <t>Investor 3</t>
+  </si>
+  <si>
+    <t>Investor 4</t>
+  </si>
+  <si>
+    <t>SAAS Fund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -110,14 +109,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E4D1A0F6-7654-442B-BA89-6063528605FF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -448,19 +450,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -469,18 +471,18 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="D2">
         <v>12000</v>
@@ -489,21 +491,24 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
       <c r="D3">
         <v>30000</v>
@@ -512,21 +517,24 @@
         <v>30000</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
       <c r="D4">
         <v>15000</v>
@@ -535,21 +543,24 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
-        <v>5</v>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
       </c>
       <c r="D5">
         <v>12000</v>
@@ -558,21 +569,24 @@
         <v>12000</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>12000</v>
@@ -581,11 +595,17 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6">
         <v>5</v>
       </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3A5739-1CA8-4841-9C00-4CA2FD4F01D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196C295-4FE8-47D6-AE44-FF4FDC237A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Status</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>SAAS Fund</t>
+  </si>
+  <si>
+    <t>Fees</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -443,12 +446,13 @@
     <col min="2" max="2" width="13.1875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -462,19 +466,22 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -490,17 +497,20 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -514,19 +524,22 @@
         <v>30000</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>30000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -542,17 +555,20 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -566,46 +582,23 @@
         <v>12000</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12000</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>12000</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196C295-4FE8-47D6-AE44-FF4FDC237A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F794279D-6435-4C61-A7DD-FC82576D95A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Status</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Verified</t>
   </si>
   <si>
-    <t>Capital Call 9</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Collected Amount *</t>
   </si>
   <si>
-    <t>Due Amount *</t>
-  </si>
-  <si>
     <t>Capital Call *</t>
   </si>
   <si>
@@ -76,7 +70,16 @@
     <t>SAAS Fund</t>
   </si>
   <si>
-    <t>Fees</t>
+    <t>Capital Fees</t>
+  </si>
+  <si>
+    <t>Other Fees</t>
+  </si>
+  <si>
+    <t>Call Amount (Inclusive of Capital Fees)*</t>
+  </si>
+  <si>
+    <t>Call 1</t>
   </si>
 </sst>
 </file>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -446,159 +449,203 @@
     <col min="2" max="2" width="13.1875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
+      <c r="J1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>12000</v>
       </c>
       <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="J2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>30000</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>30000</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>15000</v>
       </c>
       <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
+      <c r="J4">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>12000</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
         <v>12000</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>13000</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>13000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F794279D-6435-4C61-A7DD-FC82576D95A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F73251A-2384-4936-982F-4D0E0188C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Status</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Collected Amount *</t>
   </si>
   <si>
     <t>Capital Call *</t>
@@ -437,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -450,52 +447,48 @@
     <col min="3" max="3" width="18.6875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>12000</v>
@@ -506,28 +499,25 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>30000</v>
@@ -538,28 +528,25 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>30000</v>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>15000</v>
@@ -570,28 +557,25 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" t="s">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>12000</v>
@@ -602,28 +586,25 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5">
-        <v>12000</v>
+      <c r="G5" t="s">
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
         <v>9</v>
       </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>13000</v>
@@ -634,16 +615,13 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>13000</v>
+      <c r="G6" t="s">
+        <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
         <v>10</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F73251A-2384-4936-982F-4D0E0188C0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78906D9-C5E6-45B3-B057-D98AAC50997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Verified</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -41,9 +35,6 @@
   </si>
   <si>
     <t>Investor *</t>
-  </si>
-  <si>
-    <t>Paid</t>
   </si>
   <si>
     <t>Yes</t>
@@ -434,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -447,48 +438,44 @@
     <col min="3" max="3" width="18.6875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>12000</v>
@@ -500,24 +487,21 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>30000</v>
@@ -529,24 +513,21 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>15000</v>
@@ -558,24 +539,21 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>12000</v>
@@ -587,24 +565,21 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>13000</v>
@@ -616,12 +591,9 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78906D9-C5E6-45B3-B057-D98AAC50997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5F532D-3FD0-4815-B364-EE20DABA0B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Verified</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Call 1</t>
+  </si>
+  <si>
+    <t>Remittance Date</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -437,11 +440,11 @@
     <col min="2" max="2" width="13.1875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -461,13 +464,16 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -486,14 +492,14 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -512,14 +518,14 @@
       <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -538,14 +544,14 @@
       <c r="F4">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -564,14 +570,14 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -590,10 +596,10 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6">
         <v>10</v>
       </c>
     </row>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5F532D-3FD0-4815-B364-EE20DABA0B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C6C4B-7500-49EF-8705-F3BEE60419F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Verified</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Remittance Date</t>
+  </si>
+  <si>
+    <t>Investor 5</t>
+  </si>
+  <si>
+    <t>Investor 6</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -603,6 +609,58 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>13000</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>13000</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,22 +1,262 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C6C4B-7500-49EF-8705-F3BEE60419F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EAC6B8-8B29-425D-BA66-E7D0CEC7B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{31F6A033-A3F6-4120-9F55-CA2A687A2513}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Investor name as recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{08966F99-8418-4FEA-96E0-CE74DBD8EAA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Fund name recorded on CapHive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{73757F76-9645-418B-A898-1AB9E1C856BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Capital Call name as created.  This needs to be an exact match to link the Remittance (i.e. due amount)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B4E71052-4297-4A54-AA15-9C0B8B21EEE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Amount being called.  Include any fees amount which is part of the commiment amount as well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{40A0FA71-381B-49BA-9214-8EEA10183A6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Applicable in case there are Fees / expenses that are part of the commitment amount which need to be tracked as such</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C1C6D93B-7895-4914-9B38-0F85BD2303CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Applicable in case there are fees / expenses over and above the Commitment amount being called </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{35D92DB2-91DC-4470-8F54-BDFDA3D9ECAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-Date of genrating the Remittance in dd-mm-yyyy format
+-By default it considers the call date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{67CBB375-EE95-4FBE-B7CA-95374E19FCA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Yes for verified amounts
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D2AD7DDE-CD7D-4410-9EE2-136685412B6F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mandatory: Folio Number for the payment.  This is needed for mapping to the appropriate folio.  
+If needed you may download the list of commiments which will give the Investor Name and Folio No.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -94,6 +334,30 @@
       <name val="Arial"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -103,7 +367,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,14 +375,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,235 +708,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>12000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>30000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3">
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>15000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>12000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>13000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6">
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>13000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7">
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>13000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8">
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8 H9:H183" xr:uid="{0EA56DC5-31E2-4657-AAA0-A9A5D5E29A86}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Desktop\bulk files with notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EAC6B8-8B29-425D-BA66-E7D0CEC7B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A78C8-56D8-4099-B922-D68EEFB18F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{35D92DB2-91DC-4470-8F54-BDFDA3D9ECAF}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D491889A-4BE0-4A2E-9A86-9AD0970EE54C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Amount being called.  Include any fees amount which is part of the commiment amount as well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{80F39E9B-2E4E-4EA4-A2B8-883FC4D16145}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Applicable in case there are Fees / expenses that are part of the commitment amount which need to be tracked as such</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E87C555B-38A3-4D6F-849B-87D01D017D00}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Applicable in case there are fees / expenses over and above the Commitment amount being called </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{35D92DB2-91DC-4470-8F54-BDFDA3D9ECAF}">
       <text>
         <r>
           <rPr>
@@ -205,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{67CBB375-EE95-4FBE-B7CA-95374E19FCA3}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{67CBB375-EE95-4FBE-B7CA-95374E19FCA3}">
       <text>
         <r>
           <rPr>
@@ -230,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{D2AD7DDE-CD7D-4410-9EE2-136685412B6F}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D2AD7DDE-CD7D-4410-9EE2-136685412B6F}">
       <text>
         <r>
           <rPr>
@@ -260,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Verified</t>
   </si>
@@ -298,15 +370,6 @@
     <t>SAAS Fund</t>
   </si>
   <si>
-    <t>Capital Fees</t>
-  </si>
-  <si>
-    <t>Other Fees</t>
-  </si>
-  <si>
-    <t>Call Amount (Inclusive of Capital Fees)*</t>
-  </si>
-  <si>
     <t>Call 1</t>
   </si>
   <si>
@@ -317,6 +380,24 @@
   </si>
   <si>
     <t>Investor 6</t>
+  </si>
+  <si>
+    <t>Call Amount (Inclusive of Capital Fees, Folio Currency)*</t>
+  </si>
+  <si>
+    <t>Capital Fees (Folio Currency)</t>
+  </si>
+  <si>
+    <t>Other Fees (Folio Currency)</t>
+  </si>
+  <si>
+    <t>Call Amount (Inclusive of Capital Fees, Fund Currency)*</t>
+  </si>
+  <si>
+    <t>Capital Fees (Fund Currency)</t>
+  </si>
+  <si>
+    <t>Other Fees (Fund Currency)</t>
   </si>
 </sst>
 </file>
@@ -709,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -723,13 +804,14 @@
     <col min="4" max="4" width="33.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="7" max="9" width="9.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,25 +822,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -766,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
         <v>12000</v>
@@ -777,14 +868,17 @@
       <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="L2" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -792,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>30000</v>
@@ -803,14 +897,14 @@
       <c r="F3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -818,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>15000</v>
@@ -829,14 +923,14 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -844,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>12000</v>
@@ -855,14 +949,14 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -870,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>13000</v>
@@ -881,22 +975,22 @@
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>13000</v>
@@ -907,22 +1001,22 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>13000</v>
@@ -933,16 +1027,42 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
         <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H8 H9:H183" xr:uid="{0EA56DC5-31E2-4657-AAA0-A9A5D5E29A86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K183" xr:uid="{0EA56DC5-31E2-4657-AAA0-A9A5D5E29A86}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/Test/bulk files with notes/feb 25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A78C8-56D8-4099-B922-D68EEFB18F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8B4A78C8-56D8-4099-B922-D68EEFB18F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0BFA49-3396-4C7B-98D6-D798B5261B1F}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
@@ -190,17 +190,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Amount being called.  Include any fees amount which is part of the commiment amount as well</t>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leave blank if you want the system to convert based on FX rates entered by you in the system</t>
         </r>
       </text>
     </comment>
@@ -214,17 +214,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Applicable in case there are Fees / expenses that are part of the commitment amount which need to be tracked as such</t>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leave blank if you want the system to convert based on FX rates entered by you in the system</t>
         </r>
       </text>
     </comment>
@@ -238,17 +238,16 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Applicable in case there are fees / expenses over and above the Commitment amount being called </t>
+          <t xml:space="preserve">Author: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leave blank if you want the system to convert based on FX rates entered by you in the system</t>
         </r>
       </text>
     </comment>
@@ -793,7 +792,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -804,7 +803,7 @@
     <col min="4" max="4" width="33.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.625" style="2" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.375" style="2" bestFit="1" customWidth="1"/>
@@ -1061,12 +1060,13 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K183" xr:uid="{0EA56DC5-31E2-4657-AAA0-A9A5D5E29A86}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/capital_remittances.xlsx
+++ b/public/sample_uploads/capital_remittances.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f10f76f200b1328/Desktop/Test/bulk files with notes/feb 25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseem Karmali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8B4A78C8-56D8-4099-B922-D68EEFB18F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0BFA49-3396-4C7B-98D6-D798B5261B1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5633B29F-059E-48D9-92AC-9D8B92F104DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -792,7 +792,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -867,9 +867,6 @@
       <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" s="2">
-        <v>1200000</v>
-      </c>
       <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
